--- a/Bases de Datos/1º Evaluación/TEMA3/Ejercicios/Normalización/Ejercicio1.xlsx
+++ b/Bases de Datos/1º Evaluación/TEMA3/Ejercicios/Normalización/Ejercicio1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maraloed\Documents\GitHub\Grado_SuperiorDAM\Bases de Datos\1º Evaluación\TEMA3\Ejercicios\Normalización\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D83744-1E9A-4101-8909-FDC86F253212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35A85A2-6A3E-4415-8996-E5C8CE1592B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{FC611F4B-E075-4491-B019-104E421E752C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>PRESTAMOS</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>LIBRO</t>
+  </si>
+  <si>
+    <t>2FN</t>
   </si>
 </sst>
 </file>
@@ -114,7 +117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -150,36 +153,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A41D73-8F66-46B9-99C2-B46BE2E1C3A4}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,32 +499,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -564,32 +555,32 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -597,24 +588,31 @@
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="5" t="s">
         <v>6</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
